--- a/Code/Jupiter/Connect4/training_sessions.xlsx
+++ b/Code/Jupiter/Connect4/training_sessions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,6 +840,81 @@
         <v>0.51</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L3-8000</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9.075913170973459</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L3-P1-7500</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5.735529325074619</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L3-P1-7500-NOPRUNE</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>7.405351555016305</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
